--- a/wizardry/checklist.xlsx
+++ b/wizardry/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/wizardry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1837B6EE-1B45-0640-82C2-DE20AA14D58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1803D2-9C82-A94D-BAB3-DAA1841C1D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{A10FCA2F-080B-F24A-BFED-6A5E85894061}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{A10FCA2F-080B-F24A-BFED-6A5E85894061}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>year</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>Aspect</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>replay</t>
   </si>
 </sst>
 </file>
@@ -605,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3480F-D3C2-5B4A-BCA4-BABFD1667664}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +637,7 @@
     <col min="5" max="5" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -652,8 +673,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -666,8 +690,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -680,8 +707,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -694,8 +724,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -708,8 +741,11 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1991</v>
       </c>
@@ -725,8 +761,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1991</v>
       </c>
@@ -742,8 +781,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -759,8 +801,11 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -776,8 +821,11 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1993</v>
       </c>
@@ -793,8 +841,11 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1994</v>
       </c>
@@ -810,8 +861,11 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1994</v>
       </c>
@@ -827,8 +881,11 @@
       <c r="E13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1994</v>
       </c>
@@ -844,8 +901,11 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1994</v>
       </c>
@@ -861,8 +921,11 @@
       <c r="E15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -878,8 +941,11 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -895,8 +961,11 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -912,8 +981,11 @@
       <c r="E18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1995</v>
       </c>
@@ -929,8 +1001,11 @@
       <c r="E19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -946,8 +1021,11 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1995</v>
       </c>
@@ -962,6 +1040,9 @@
       </c>
       <c r="E21" t="s">
         <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/wizardry/checklist.xlsx
+++ b/wizardry/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/wizardry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1803D2-9C82-A94D-BAB3-DAA1841C1D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C73E5E-8AA9-A147-BBAA-45F7A0DE8F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{A10FCA2F-080B-F24A-BFED-6A5E85894061}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{A10FCA2F-080B-F24A-BFED-6A5E85894061}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3480F-D3C2-5B4A-BCA4-BABFD1667664}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,6 +678,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1989</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -695,6 +698,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1989</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -712,6 +718,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1989</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -729,6 +738,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1990</v>
+      </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>

--- a/wizardry/checklist.xlsx
+++ b/wizardry/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/wizardry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C73E5E-8AA9-A147-BBAA-45F7A0DE8F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2961F33-F179-434A-9AC3-2AD7FC02EE2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{A10FCA2F-080B-F24A-BFED-6A5E85894061}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>year</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>replay</t>
+  </si>
+  <si>
+    <t>Hobby Base</t>
+  </si>
+  <si>
+    <t>wizardry_reprint.jpg</t>
+  </si>
+  <si>
+    <t>ウィザードリィRPG</t>
+  </si>
+  <si>
+    <t>Wizardry RPG</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3480F-D3C2-5B4A-BCA4-BABFD1667664}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,6 +1069,26 @@
         <v>72</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
